--- a/igem2017/sdin/tools/preload/additional/special prizes.xlsx
+++ b/igem2017/sdin/tools/preload/additional/special prizes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixia\LinuxHome\Projects\IGEM2017-SYSU.Software\igem2017\sdin\tools\preload\additional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\新建文件夹\special prizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4425" windowHeight="1650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4418" windowHeight="1643" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special prizes的解释" sheetId="1" r:id="rId1"/>
     <sheet name="special prizes的网络分析" sheetId="2" r:id="rId2"/>
     <sheet name="special prizes推荐project和part" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,21 +297,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>393945</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565395</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2399465" cy="3293966"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -324,7 +318,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4508745" y="614363"/>
+          <a:off x="2508495" y="404813"/>
           <a:ext cx="2399465" cy="3293966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -341,21 +335,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145458</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69258</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5756281" cy="3836082"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -368,7 +356,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952624" y="3041058"/>
+          <a:off x="400049" y="774108"/>
           <a:ext cx="5756281" cy="3836082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -643,19 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -683,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -697,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -711,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -725,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -739,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -753,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -775,25 +760,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -801,7 +782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -809,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -817,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -825,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -833,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -841,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -857,21 +838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -882,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -893,7 +869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -904,7 +880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -915,7 +891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -926,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -937,7 +913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -948,7 +924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
